--- a/artfynd/A 60967-2025 artfynd.xlsx
+++ b/artfynd/A 60967-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130862982</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>130862980</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>130862972</v>
       </c>
       <c r="B4" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>130862974</v>
       </c>
       <c r="B5" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>130862986</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>130862978</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>130862990</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>130862976</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>130862992</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>130862996</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>130862994</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>130862988</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>130862984</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>130865716</v>
       </c>
       <c r="B15" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130865719</v>
+        <v>130865706</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>447105</v>
+        <v>447322</v>
       </c>
       <c r="R16" t="n">
-        <v>7043139</v>
+        <v>7042723</v>
       </c>
       <c r="S16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2334,12 +2334,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:35</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Med apothecier</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2366,10 +2361,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130865706</v>
+        <v>130865707</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2401,13 +2396,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>447322</v>
+        <v>447282</v>
       </c>
       <c r="R17" t="n">
-        <v>7042723</v>
+        <v>7042740</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2436,7 +2431,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2446,7 +2441,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2473,10 +2468,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130865707</v>
+        <v>130865719</v>
       </c>
       <c r="B18" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2508,13 +2503,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>447282</v>
+        <v>447105</v>
       </c>
       <c r="R18" t="n">
-        <v>7042740</v>
+        <v>7043139</v>
       </c>
       <c r="S18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2543,7 +2538,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2553,7 +2548,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>15:35</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Med apothecier</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2583,7 +2583,7 @@
         <v>130865717</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>130865702</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>130865701</v>
       </c>
       <c r="B21" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>130865715</v>
       </c>
       <c r="B22" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>130865710</v>
       </c>
       <c r="B23" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>130865714</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3222,10 +3222,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130865712</v>
+        <v>130865713</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>91804</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3233,21 +3233,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3257,13 +3257,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>447165</v>
+        <v>447144</v>
       </c>
       <c r="R25" t="n">
-        <v>7043032</v>
+        <v>7043043</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3329,10 +3329,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130865713</v>
+        <v>130865703</v>
       </c>
       <c r="B26" t="n">
-        <v>91800</v>
+        <v>89193</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3340,21 +3340,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1108</v>
+        <v>510</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>447144</v>
+        <v>447410</v>
       </c>
       <c r="R26" t="n">
-        <v>7043043</v>
+        <v>7042768</v>
       </c>
       <c r="S26" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3436,10 +3436,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130865703</v>
+        <v>130865712</v>
       </c>
       <c r="B27" t="n">
-        <v>89189</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3447,21 +3447,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3471,13 +3471,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>447410</v>
+        <v>447165</v>
       </c>
       <c r="R27" t="n">
-        <v>7042768</v>
+        <v>7043032</v>
       </c>
       <c r="S27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3546,7 +3546,7 @@
         <v>130865708</v>
       </c>
       <c r="B28" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>130865720</v>
       </c>
       <c r="B29" t="n">
-        <v>57060</v>
+        <v>57064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>130865711</v>
       </c>
       <c r="B30" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>130865704</v>
       </c>
       <c r="B31" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>

--- a/artfynd/A 60967-2025 artfynd.xlsx
+++ b/artfynd/A 60967-2025 artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130862980</v>
+        <v>130862972</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,34 +793,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Söderåsen Väst, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>447218</v>
+        <v>447167</v>
       </c>
       <c r="R3" t="n">
-        <v>7042948</v>
+        <v>7042999</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +860,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På en tydligt gammal gran med nedåthängande grenar.</t>
+          <t>Flera fruktkroppar i en gammal relativt grov döende stående gran med full längd och 36 cm i brösthöjdsdiameter..</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -866,8 +869,34 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -884,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130862972</v>
+        <v>130862980</v>
       </c>
       <c r="B4" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,37 +924,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Söderåsen Väst, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>447167</v>
+        <v>447218</v>
       </c>
       <c r="R4" t="n">
-        <v>7042999</v>
+        <v>7042948</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -962,7 +988,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en gammal relativt grov döende stående gran med full längd och 36 cm i brösthöjdsdiameter..</t>
+          <t>På en tydligt gammal gran med nedåthängande grenar.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -971,34 +997,8 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -3222,10 +3222,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130865713</v>
+        <v>130865712</v>
       </c>
       <c r="B25" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3233,21 +3233,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3257,13 +3257,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>447144</v>
+        <v>447165</v>
       </c>
       <c r="R25" t="n">
-        <v>7043043</v>
+        <v>7043032</v>
       </c>
       <c r="S25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3329,10 +3329,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130865703</v>
+        <v>130865713</v>
       </c>
       <c r="B26" t="n">
-        <v>89193</v>
+        <v>91804</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3340,21 +3340,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>510</v>
+        <v>1108</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>447410</v>
+        <v>447144</v>
       </c>
       <c r="R26" t="n">
-        <v>7042768</v>
+        <v>7043043</v>
       </c>
       <c r="S26" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3436,10 +3436,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130865712</v>
+        <v>130865703</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>89193</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3447,21 +3447,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3471,13 +3471,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>447165</v>
+        <v>447410</v>
       </c>
       <c r="R27" t="n">
-        <v>7043032</v>
+        <v>7042768</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 60967-2025 artfynd.xlsx
+++ b/artfynd/A 60967-2025 artfynd.xlsx
@@ -3222,10 +3222,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130865712</v>
+        <v>130865713</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3233,21 +3233,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3257,13 +3257,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>447165</v>
+        <v>447144</v>
       </c>
       <c r="R25" t="n">
-        <v>7043032</v>
+        <v>7043043</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3329,10 +3329,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130865713</v>
+        <v>130865703</v>
       </c>
       <c r="B26" t="n">
-        <v>91804</v>
+        <v>89193</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3340,21 +3340,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1108</v>
+        <v>510</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>447144</v>
+        <v>447410</v>
       </c>
       <c r="R26" t="n">
-        <v>7043043</v>
+        <v>7042768</v>
       </c>
       <c r="S26" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3436,10 +3436,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130865703</v>
+        <v>130865712</v>
       </c>
       <c r="B27" t="n">
-        <v>89193</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3447,21 +3447,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3471,13 +3471,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>447410</v>
+        <v>447165</v>
       </c>
       <c r="R27" t="n">
-        <v>7042768</v>
+        <v>7043032</v>
       </c>
       <c r="S27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 60967-2025 artfynd.xlsx
+++ b/artfynd/A 60967-2025 artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130862972</v>
+        <v>130862980</v>
       </c>
       <c r="B3" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,37 +793,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Söderåsen Väst, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>447167</v>
+        <v>447218</v>
       </c>
       <c r="R3" t="n">
-        <v>7042999</v>
+        <v>7042948</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -860,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en gammal relativt grov döende stående gran med full längd och 36 cm i brösthöjdsdiameter..</t>
+          <t>På en tydligt gammal gran med nedåthängande grenar.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -869,34 +866,8 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -913,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130862980</v>
+        <v>130862972</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,34 +895,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Söderåsen Väst, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>447218</v>
+        <v>447167</v>
       </c>
       <c r="R4" t="n">
-        <v>7042948</v>
+        <v>7042999</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -988,7 +962,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På en tydligt gammal gran med nedåthängande grenar.</t>
+          <t>Flera fruktkroppar i en gammal relativt grov döende stående gran med full längd och 36 cm i brösthöjdsdiameter..</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -997,8 +971,34 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -2254,7 +2254,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130865706</v>
+        <v>130865707</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>447322</v>
+        <v>447282</v>
       </c>
       <c r="R16" t="n">
-        <v>7042723</v>
+        <v>7042740</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2361,7 +2361,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130865707</v>
+        <v>130865719</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>447282</v>
+        <v>447105</v>
       </c>
       <c r="R17" t="n">
-        <v>7042740</v>
+        <v>7043139</v>
       </c>
       <c r="S17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2441,7 +2441,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>15:35</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Med apothecier</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2468,7 +2473,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130865719</v>
+        <v>130865706</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2503,13 +2508,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>447105</v>
+        <v>447322</v>
       </c>
       <c r="R18" t="n">
-        <v>7043139</v>
+        <v>7042723</v>
       </c>
       <c r="S18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2538,7 +2543,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2548,12 +2553,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:35</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Med apothecier</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2687,7 +2687,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130865702</v>
+        <v>130865701</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>447402</v>
+        <v>447439</v>
       </c>
       <c r="R20" t="n">
-        <v>7042777</v>
+        <v>7042775</v>
       </c>
       <c r="S20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2794,7 +2794,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130865701</v>
+        <v>130865702</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -2829,13 +2829,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>447439</v>
+        <v>447402</v>
       </c>
       <c r="R21" t="n">
-        <v>7042775</v>
+        <v>7042777</v>
       </c>
       <c r="S21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2901,10 +2901,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130865715</v>
+        <v>130865710</v>
       </c>
       <c r="B22" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2912,21 +2912,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2936,13 +2936,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>447136</v>
+        <v>447169</v>
       </c>
       <c r="R22" t="n">
-        <v>7043068</v>
+        <v>7042897</v>
       </c>
       <c r="S22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3008,10 +3008,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130865710</v>
+        <v>130865715</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3019,21 +3019,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3043,13 +3043,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>447169</v>
+        <v>447136</v>
       </c>
       <c r="R23" t="n">
-        <v>7042897</v>
+        <v>7043068</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3222,10 +3222,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130865713</v>
+        <v>130865712</v>
       </c>
       <c r="B25" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3233,21 +3233,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3257,13 +3257,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>447144</v>
+        <v>447165</v>
       </c>
       <c r="R25" t="n">
-        <v>7043043</v>
+        <v>7043032</v>
       </c>
       <c r="S25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3436,10 +3436,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130865712</v>
+        <v>130865713</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3447,21 +3447,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3471,13 +3471,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>447165</v>
+        <v>447144</v>
       </c>
       <c r="R27" t="n">
-        <v>7043032</v>
+        <v>7043043</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 60967-2025 artfynd.xlsx
+++ b/artfynd/A 60967-2025 artfynd.xlsx
@@ -2254,7 +2254,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130865707</v>
+        <v>130865706</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>447282</v>
+        <v>447322</v>
       </c>
       <c r="R16" t="n">
-        <v>7042740</v>
+        <v>7042723</v>
       </c>
       <c r="S16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2361,7 +2361,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130865719</v>
+        <v>130865707</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>447105</v>
+        <v>447282</v>
       </c>
       <c r="R17" t="n">
-        <v>7043139</v>
+        <v>7042740</v>
       </c>
       <c r="S17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2441,12 +2441,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:35</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Med apothecier</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2473,7 +2468,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130865706</v>
+        <v>130865719</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2508,13 +2503,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>447322</v>
+        <v>447105</v>
       </c>
       <c r="R18" t="n">
-        <v>7042723</v>
+        <v>7043139</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2543,7 +2538,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2553,7 +2548,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>15:35</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Med apothecier</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2687,7 +2687,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130865701</v>
+        <v>130865702</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>447439</v>
+        <v>447402</v>
       </c>
       <c r="R20" t="n">
-        <v>7042775</v>
+        <v>7042777</v>
       </c>
       <c r="S20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2794,7 +2794,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130865702</v>
+        <v>130865701</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -2829,13 +2829,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>447402</v>
+        <v>447439</v>
       </c>
       <c r="R21" t="n">
-        <v>7042777</v>
+        <v>7042775</v>
       </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2901,10 +2901,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130865710</v>
+        <v>130865715</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2912,21 +2912,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2936,13 +2936,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>447169</v>
+        <v>447136</v>
       </c>
       <c r="R22" t="n">
-        <v>7042897</v>
+        <v>7043068</v>
       </c>
       <c r="S22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3008,10 +3008,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130865715</v>
+        <v>130865710</v>
       </c>
       <c r="B23" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3019,21 +3019,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3043,13 +3043,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>447136</v>
+        <v>447169</v>
       </c>
       <c r="R23" t="n">
-        <v>7043068</v>
+        <v>7042897</v>
       </c>
       <c r="S23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3222,10 +3222,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130865712</v>
+        <v>130865713</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3233,21 +3233,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3257,13 +3257,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>447165</v>
+        <v>447144</v>
       </c>
       <c r="R25" t="n">
-        <v>7043032</v>
+        <v>7043043</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3436,10 +3436,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130865713</v>
+        <v>130865712</v>
       </c>
       <c r="B27" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3447,21 +3447,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3471,13 +3471,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>447144</v>
+        <v>447165</v>
       </c>
       <c r="R27" t="n">
-        <v>7043043</v>
+        <v>7043032</v>
       </c>
       <c r="S27" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 60967-2025 artfynd.xlsx
+++ b/artfynd/A 60967-2025 artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130862980</v>
+        <v>130862972</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,34 +793,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Söderåsen Väst, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>447218</v>
+        <v>447167</v>
       </c>
       <c r="R3" t="n">
-        <v>7042948</v>
+        <v>7042999</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +860,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På en tydligt gammal gran med nedåthängande grenar.</t>
+          <t>Flera fruktkroppar i en gammal relativt grov döende stående gran med full längd och 36 cm i brösthöjdsdiameter..</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -866,8 +869,34 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -884,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130862972</v>
+        <v>130862980</v>
       </c>
       <c r="B4" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,37 +924,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Söderåsen Väst, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>447167</v>
+        <v>447218</v>
       </c>
       <c r="R4" t="n">
-        <v>7042999</v>
+        <v>7042948</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -962,7 +988,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en gammal relativt grov döende stående gran med full längd och 36 cm i brösthöjdsdiameter..</t>
+          <t>På en tydligt gammal gran med nedåthängande grenar.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -971,34 +997,8 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -2901,10 +2901,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130865715</v>
+        <v>130865710</v>
       </c>
       <c r="B22" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2912,21 +2912,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2936,13 +2936,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>447136</v>
+        <v>447169</v>
       </c>
       <c r="R22" t="n">
-        <v>7043068</v>
+        <v>7042897</v>
       </c>
       <c r="S22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3008,10 +3008,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130865710</v>
+        <v>130865715</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3019,21 +3019,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3043,13 +3043,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>447169</v>
+        <v>447136</v>
       </c>
       <c r="R23" t="n">
-        <v>7042897</v>
+        <v>7043068</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3222,10 +3222,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130865713</v>
+        <v>130865712</v>
       </c>
       <c r="B25" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3233,21 +3233,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3257,13 +3257,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>447144</v>
+        <v>447165</v>
       </c>
       <c r="R25" t="n">
-        <v>7043043</v>
+        <v>7043032</v>
       </c>
       <c r="S25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3329,10 +3329,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130865703</v>
+        <v>130865713</v>
       </c>
       <c r="B26" t="n">
-        <v>89193</v>
+        <v>91804</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3340,21 +3340,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>510</v>
+        <v>1108</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>447410</v>
+        <v>447144</v>
       </c>
       <c r="R26" t="n">
-        <v>7042768</v>
+        <v>7043043</v>
       </c>
       <c r="S26" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3436,10 +3436,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130865712</v>
+        <v>130865703</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>89193</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3447,21 +3447,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3471,13 +3471,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>447165</v>
+        <v>447410</v>
       </c>
       <c r="R27" t="n">
-        <v>7043032</v>
+        <v>7042768</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 60967-2025 artfynd.xlsx
+++ b/artfynd/A 60967-2025 artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130862972</v>
+        <v>130862980</v>
       </c>
       <c r="B3" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,37 +793,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Söderåsen Väst, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>447167</v>
+        <v>447218</v>
       </c>
       <c r="R3" t="n">
-        <v>7042999</v>
+        <v>7042948</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -860,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en gammal relativt grov döende stående gran med full längd och 36 cm i brösthöjdsdiameter..</t>
+          <t>På en tydligt gammal gran med nedåthängande grenar.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -869,34 +866,8 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -913,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130862980</v>
+        <v>130862972</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,34 +895,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Söderåsen Väst, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>447218</v>
+        <v>447167</v>
       </c>
       <c r="R4" t="n">
-        <v>7042948</v>
+        <v>7042999</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -988,7 +962,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På en tydligt gammal gran med nedåthängande grenar.</t>
+          <t>Flera fruktkroppar i en gammal relativt grov döende stående gran med full längd och 36 cm i brösthöjdsdiameter..</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -997,8 +971,34 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1117,7 +1117,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130862986</v>
+        <v>130862978</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1152,10 +1152,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>447285</v>
+        <v>447078</v>
       </c>
       <c r="R6" t="n">
-        <v>7042837</v>
+        <v>7043076</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Garnlav på flera granar i gles mycket luckig gammal granskog.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1219,7 +1219,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130862978</v>
+        <v>130862986</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>447078</v>
+        <v>447285</v>
       </c>
       <c r="R7" t="n">
-        <v>7043076</v>
+        <v>7042837</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Garnlav på flera granar i gles mycket luckig gammal granskog.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1947,7 +1947,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130862988</v>
+        <v>130862984</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>447308</v>
+        <v>447249</v>
       </c>
       <c r="R13" t="n">
-        <v>7042764</v>
+        <v>7042828</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130862984</v>
+        <v>130862988</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2084,10 +2084,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>447249</v>
+        <v>447308</v>
       </c>
       <c r="R14" t="n">
-        <v>7042828</v>
+        <v>7042764</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130865706</v>
+        <v>130865707</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>447322</v>
+        <v>447282</v>
       </c>
       <c r="R16" t="n">
-        <v>7042723</v>
+        <v>7042740</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2361,7 +2361,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130865707</v>
+        <v>130865706</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>447282</v>
+        <v>447322</v>
       </c>
       <c r="R17" t="n">
-        <v>7042740</v>
+        <v>7042723</v>
       </c>
       <c r="S17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -3222,10 +3222,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130865712</v>
+        <v>130865713</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3233,21 +3233,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3257,13 +3257,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>447165</v>
+        <v>447144</v>
       </c>
       <c r="R25" t="n">
-        <v>7043032</v>
+        <v>7043043</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3329,10 +3329,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130865713</v>
+        <v>130865703</v>
       </c>
       <c r="B26" t="n">
-        <v>91804</v>
+        <v>89193</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3340,21 +3340,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1108</v>
+        <v>510</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>447144</v>
+        <v>447410</v>
       </c>
       <c r="R26" t="n">
-        <v>7043043</v>
+        <v>7042768</v>
       </c>
       <c r="S26" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3436,10 +3436,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130865703</v>
+        <v>130865712</v>
       </c>
       <c r="B27" t="n">
-        <v>89193</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3447,21 +3447,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3471,13 +3471,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>447410</v>
+        <v>447165</v>
       </c>
       <c r="R27" t="n">
-        <v>7042768</v>
+        <v>7043032</v>
       </c>
       <c r="S27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 60967-2025 artfynd.xlsx
+++ b/artfynd/A 60967-2025 artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130862980</v>
+        <v>130862972</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,34 +793,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Söderåsen Väst, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>447218</v>
+        <v>447167</v>
       </c>
       <c r="R3" t="n">
-        <v>7042948</v>
+        <v>7042999</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +860,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På en tydligt gammal gran med nedåthängande grenar.</t>
+          <t>Flera fruktkroppar i en gammal relativt grov döende stående gran med full längd och 36 cm i brösthöjdsdiameter..</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -866,8 +869,34 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -884,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130862972</v>
+        <v>130862980</v>
       </c>
       <c r="B4" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,37 +924,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Söderåsen Väst, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>447167</v>
+        <v>447218</v>
       </c>
       <c r="R4" t="n">
-        <v>7042999</v>
+        <v>7042948</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -962,7 +988,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en gammal relativt grov döende stående gran med full längd och 36 cm i brösthöjdsdiameter..</t>
+          <t>På en tydligt gammal gran med nedåthängande grenar.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -971,34 +997,8 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1117,7 +1117,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130862978</v>
+        <v>130862986</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1152,10 +1152,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>447078</v>
+        <v>447285</v>
       </c>
       <c r="R6" t="n">
-        <v>7043076</v>
+        <v>7042837</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Garnlav på flera granar i gles mycket luckig gammal granskog.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1219,7 +1219,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130862986</v>
+        <v>130862978</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>447285</v>
+        <v>447078</v>
       </c>
       <c r="R7" t="n">
-        <v>7042837</v>
+        <v>7043076</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Garnlav på flera granar i gles mycket luckig gammal granskog.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1947,7 +1947,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130862984</v>
+        <v>130862988</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>447249</v>
+        <v>447308</v>
       </c>
       <c r="R13" t="n">
-        <v>7042828</v>
+        <v>7042764</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130862988</v>
+        <v>130862984</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2084,10 +2084,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>447308</v>
+        <v>447249</v>
       </c>
       <c r="R14" t="n">
-        <v>7042764</v>
+        <v>7042828</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130865707</v>
+        <v>130865706</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>447282</v>
+        <v>447322</v>
       </c>
       <c r="R16" t="n">
-        <v>7042740</v>
+        <v>7042723</v>
       </c>
       <c r="S16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2361,7 +2361,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130865706</v>
+        <v>130865707</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>447322</v>
+        <v>447282</v>
       </c>
       <c r="R17" t="n">
-        <v>7042723</v>
+        <v>7042740</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2901,10 +2901,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130865710</v>
+        <v>130865715</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2912,21 +2912,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2936,13 +2936,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>447169</v>
+        <v>447136</v>
       </c>
       <c r="R22" t="n">
-        <v>7042897</v>
+        <v>7043068</v>
       </c>
       <c r="S22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3008,10 +3008,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130865715</v>
+        <v>130865710</v>
       </c>
       <c r="B23" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3019,21 +3019,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3043,13 +3043,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>447136</v>
+        <v>447169</v>
       </c>
       <c r="R23" t="n">
-        <v>7043068</v>
+        <v>7042897</v>
       </c>
       <c r="S23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 60967-2025 artfynd.xlsx
+++ b/artfynd/A 60967-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130862982</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130862972</v>
+        <v>130862980</v>
       </c>
       <c r="B3" t="n">
-        <v>91828</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,37 +793,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Söderåsen Väst, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>447167</v>
+        <v>447218</v>
       </c>
       <c r="R3" t="n">
-        <v>7042999</v>
+        <v>7042948</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -860,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en gammal relativt grov döende stående gran med full längd och 36 cm i brösthöjdsdiameter..</t>
+          <t>På en tydligt gammal gran med nedåthängande grenar.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -869,34 +866,8 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -913,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130862980</v>
+        <v>130862972</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,34 +895,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Söderåsen Väst, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>447218</v>
+        <v>447167</v>
       </c>
       <c r="R4" t="n">
-        <v>7042948</v>
+        <v>7042999</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -988,7 +962,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På en tydligt gammal gran med nedåthängande grenar.</t>
+          <t>Flera fruktkroppar i en gammal relativt grov döende stående gran med full längd och 36 cm i brösthöjdsdiameter..</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -997,8 +971,34 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1018,7 +1018,7 @@
         <v>130862974</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>130862986</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>130862978</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>130862990</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>130862976</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>130862992</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>130862996</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>130862994</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>130862988</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>130862984</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>130865716</v>
       </c>
       <c r="B15" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>130865706</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>130865707</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>130865719</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>130865717</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>130865702</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>130865701</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>130865715</v>
       </c>
       <c r="B22" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>130865710</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>130865714</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3222,10 +3222,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130865713</v>
+        <v>130865712</v>
       </c>
       <c r="B25" t="n">
-        <v>91804</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3233,21 +3233,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3257,13 +3257,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>447144</v>
+        <v>447165</v>
       </c>
       <c r="R25" t="n">
-        <v>7043043</v>
+        <v>7043032</v>
       </c>
       <c r="S25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3329,10 +3329,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130865703</v>
+        <v>130865713</v>
       </c>
       <c r="B26" t="n">
-        <v>89193</v>
+        <v>91805</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3340,21 +3340,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>510</v>
+        <v>1108</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>447410</v>
+        <v>447144</v>
       </c>
       <c r="R26" t="n">
-        <v>7042768</v>
+        <v>7043043</v>
       </c>
       <c r="S26" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3436,10 +3436,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130865712</v>
+        <v>130865703</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>89194</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3447,21 +3447,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3471,13 +3471,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>447165</v>
+        <v>447410</v>
       </c>
       <c r="R27" t="n">
-        <v>7043032</v>
+        <v>7042768</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3546,7 +3546,7 @@
         <v>130865708</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>130865711</v>
       </c>
       <c r="B30" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>130865704</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>

--- a/artfynd/A 60967-2025 artfynd.xlsx
+++ b/artfynd/A 60967-2025 artfynd.xlsx
@@ -2901,10 +2901,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130865715</v>
+        <v>130865710</v>
       </c>
       <c r="B22" t="n">
-        <v>91809</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2912,21 +2912,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2936,13 +2936,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>447136</v>
+        <v>447169</v>
       </c>
       <c r="R22" t="n">
-        <v>7043068</v>
+        <v>7042897</v>
       </c>
       <c r="S22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3008,10 +3008,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130865710</v>
+        <v>130865715</v>
       </c>
       <c r="B23" t="n">
-        <v>79244</v>
+        <v>91809</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3019,21 +3019,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3043,13 +3043,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>447169</v>
+        <v>447136</v>
       </c>
       <c r="R23" t="n">
-        <v>7042897</v>
+        <v>7043068</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD23" t="b">
